--- a/requirements_file/markers_brain_organoids.xlsx
+++ b/requirements_file/markers_brain_organoids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JSEQ_scRNAseq\requirements_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654B8519-29BC-49AD-8FA3-5C7820C8528E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979BBA8F-CD45-4AA4-885C-740D27812C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>+GSX2</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>LGE</t>
-  </si>
-  <si>
-    <t>PROX1</t>
   </si>
   <si>
     <t>+DBX1</t>
@@ -515,38 +512,38 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -554,22 +551,22 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -587,30 +584,30 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -629,7 +626,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,11 +636,11 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1"/>
       <c r="K3" s="1"/>
@@ -660,14 +657,14 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -689,7 +686,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -713,7 +710,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -736,7 +733,7 @@
       <c r="S6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -755,7 +752,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -778,7 +775,7 @@
       <c r="Y8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -796,7 +793,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -819,7 +816,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -842,7 +839,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -865,7 +862,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -888,7 +885,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -917,7 +914,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -946,7 +943,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -975,7 +972,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1004,7 +1001,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1033,7 +1030,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1062,7 +1059,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1091,7 +1088,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1120,7 +1117,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1149,7 +1146,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1178,7 +1175,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1207,7 +1204,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1236,7 +1233,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1265,7 +1262,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1294,7 +1291,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1323,7 +1320,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1352,7 +1349,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1381,7 +1378,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1410,7 +1407,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1439,7 +1436,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1468,7 +1465,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1497,7 +1494,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1526,7 +1523,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1555,7 +1552,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1584,7 +1581,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1613,7 +1610,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1642,7 +1639,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1671,7 +1668,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1700,7 +1697,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1729,7 +1726,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1758,7 +1755,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1787,7 +1784,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1816,7 +1813,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1845,7 +1842,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1874,7 +1871,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1903,7 +1900,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1932,7 +1929,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1961,7 +1958,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1990,7 +1987,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2019,7 +2016,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2048,7 +2045,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2077,7 +2074,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2106,7 +2103,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2135,7 +2132,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2164,7 +2161,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2193,7 +2190,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2222,7 +2219,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2251,7 +2248,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2280,7 +2277,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2309,7 +2306,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2338,7 +2335,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2367,7 +2364,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2396,7 +2393,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2425,7 +2422,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2454,7 +2451,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2483,7 +2480,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2512,7 +2509,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2541,7 +2538,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2570,7 +2567,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2599,7 +2596,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2628,7 +2625,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2657,7 +2654,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2686,7 +2683,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2715,7 +2712,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2744,7 +2741,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2773,7 +2770,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2802,7 +2799,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2831,7 +2828,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2860,7 +2857,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2889,7 +2886,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2918,7 +2915,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2947,7 +2944,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2976,7 +2973,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3005,7 +3002,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3034,7 +3031,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3063,7 +3060,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3092,7 +3089,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3121,7 +3118,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3150,7 +3147,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3179,7 +3176,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3208,7 +3205,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3237,7 +3234,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3266,7 +3263,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3295,7 +3292,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3324,7 +3321,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3353,7 +3350,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3382,7 +3379,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3411,7 +3408,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3440,7 +3437,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3469,7 +3466,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3498,7 +3495,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3527,7 +3524,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3556,7 +3553,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3585,7 +3582,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3614,7 +3611,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3643,7 +3640,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3684,19 +3681,19 @@
   <dimension ref="A1:CP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" customWidth="1"/>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" customWidth="1"/>
+    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3707,55 +3704,52 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>40</v>
+      <c r="S1" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="AN1"/>
       <c r="AO1"/>
@@ -3784,32 +3778,32 @@
       <c r="BL1"/>
       <c r="BM1"/>
     </row>
-    <row r="2" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:94" x14ac:dyDescent="0.3">
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.3">
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.3">
       <c r="CM8" s="1"/>
       <c r="CO8" s="1"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.3">
       <c r="CM9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
       <c r="CM10" s="1"/>
       <c r="CO10" s="1"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.3">
       <c r="CM11" s="1"/>
       <c r="CO11" s="1"/>
     </row>

--- a/requirements_file/markers_brain_organoids.xlsx
+++ b/requirements_file/markers_brain_organoids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979BBA8F-CD45-4AA4-885C-740D27812C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCF08A-6E2A-4BCA-B388-E2765F4E1044}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -509,41 +509,41 @@
   <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" customWidth="1"/>
-    <col min="19" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="19" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -710,7 +710,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -733,7 +733,7 @@
       <c r="S6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -752,7 +752,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -775,7 +775,7 @@
       <c r="Y8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -793,7 +793,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -816,7 +816,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -839,7 +839,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -862,7 +862,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -885,7 +885,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -914,7 +914,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -943,7 +943,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -972,7 +972,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1030,7 +1030,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1059,7 +1059,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1088,7 +1088,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1117,7 +1117,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1175,7 +1175,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1204,7 +1204,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1233,7 +1233,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1262,7 +1262,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1320,7 +1320,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1349,7 +1349,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1378,7 +1378,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1407,7 +1407,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1436,7 +1436,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1465,7 +1465,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1552,7 +1552,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1581,7 +1581,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1610,7 +1610,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1668,7 +1668,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1697,7 +1697,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1726,7 +1726,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1755,7 +1755,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1784,7 +1784,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1813,7 +1813,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1842,7 +1842,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1900,7 +1900,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1929,7 +1929,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1958,7 +1958,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1987,7 +1987,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2016,7 +2016,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2045,7 +2045,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2074,7 +2074,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2103,7 +2103,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2132,7 +2132,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2161,7 +2161,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2190,7 +2190,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2219,7 +2219,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2248,7 +2248,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2277,7 +2277,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2306,7 +2306,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2335,7 +2335,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2393,7 +2393,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2422,7 +2422,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2451,7 +2451,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2480,7 +2480,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2509,7 +2509,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2538,7 +2538,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2567,7 +2567,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2596,7 +2596,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2625,7 +2625,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2654,7 +2654,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2683,7 +2683,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2712,7 +2712,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2741,7 +2741,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2770,7 +2770,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2799,7 +2799,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2828,7 +2828,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2857,7 +2857,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2886,7 +2886,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2915,7 +2915,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2944,7 +2944,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2973,7 +2973,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3002,7 +3002,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3031,7 +3031,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3060,7 +3060,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3089,7 +3089,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3118,7 +3118,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3147,7 +3147,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3176,7 +3176,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3205,7 +3205,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3234,7 +3234,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3263,7 +3263,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3292,7 +3292,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3321,7 +3321,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3350,7 +3350,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3379,7 +3379,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3408,7 +3408,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3437,7 +3437,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3466,7 +3466,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3495,7 +3495,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3524,7 +3524,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3553,7 +3553,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3582,7 +3582,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3611,7 +3611,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3640,7 +3640,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3681,19 +3681,19 @@
   <dimension ref="A1:CP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="30" max="30" width="14.88671875" customWidth="1"/>
-    <col min="60" max="60" width="14.88671875" customWidth="1"/>
-    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
+    <col min="60" max="60" width="14.85546875" customWidth="1"/>
+    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3778,32 +3778,32 @@
       <c r="BL1"/>
       <c r="BM1"/>
     </row>
-    <row r="2" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="CM8" s="1"/>
       <c r="CO8" s="1"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="CM9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="CM10" s="1"/>
       <c r="CO10" s="1"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="CM11" s="1"/>
       <c r="CO11" s="1"/>
     </row>
